--- a/Chonqqing Power Grid/data-output/供电分离合并删除增加电商等14-18-金额.xlsx
+++ b/Chonqqing Power Grid/data-output/供电分离合并删除增加电商等14-18-金额.xlsx
@@ -1865,16 +1865,16 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>416957.92</v>
+        <v>26059.87</v>
       </c>
       <c r="E57">
-        <v>71856.80000000002</v>
+        <v>4491.05</v>
       </c>
       <c r="F57">
-        <v>37020.64000000001</v>
+        <v>2313.79</v>
       </c>
       <c r="G57">
-        <v>458634.24</v>
+        <v>28664.63999999999</v>
       </c>
     </row>
     <row r="58" spans="1:7">
